--- a/biology/Médecine/Contactologie/Contactologie.xlsx
+++ b/biology/Médecine/Contactologie/Contactologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La contactologie est une pratique médicale ou paramédicale dont l’objet est de permettre à une personne souffrant d’amétropie, de corriger ou compenser son défaut par le port de lentilles de contact.
 </t>
@@ -511,7 +523,9 @@
           <t>Les professionnels de santé qui pratiquent la contactologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La contactologie peut être pratiquée par un médecin ophtalmologiste, un orthoptiste sous contrôle médical, ou un opticien-optométriste adaptateur en fonction de la réglementation en vigueur dans le pays.
 La réglementation en France la profession d'optométriste n'est pas reconnue ni encadrée. Par conséquent la pratique de la contactologie en France est juridiquement réservée aux ophtalmologistes, et orthoptistes.
@@ -543,7 +557,9 @@
           <t>L’adaptation des lentilles de contact</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La première pose de lentilles de contact sur l’œil d’un patient s’appelle l’adaptation de la lentille. Elle est réalisée par un adaptateur.
 L’adaptation, (fitting en anglais), consiste pour le professionnel à identifier les lentilles qui pourront corriger son défaut visuel et qui s’adapteront aux particularités de l’œil du patient.
@@ -580,7 +596,9 @@
           <t>Les limites d’application des lentilles de contact</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Grâce aux progrès de la contactologie, les amétropies les plus courantes peuvent aujourd’hui être corrigées par le port de lentilles mensuelles ou journalières. Mais la puissance de ces lentilles de contact reste néanmoins limitée: elles ne sont pas adaptées pour la correction de fortes myopies (au-delà de – 10 dioptries) ou fortes hypermétropies (supérieures à + 6 dioptries).
 Néanmoins, pour des corrections supérieures (de -30 à + 30 dioptries), il existe désormais des lentilles individualisées à renouvellement trimestriel.
@@ -612,7 +630,9 @@
           <t>La formation professionnelle en contactologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le professionnel qui pratique la contactologie suit une formation spécifique complémentaire de une à trois années en général (selon le pays où il exerce*) qui lui permet d’appréhender les compétences techniques dans les domaines suivants :
 Matériaux, géométrie et fabrication des lentilles ;
@@ -649,9 +669,11 @@
           <t>Autres types de lentilles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les lentilles intra-oculaires artificielles sont implantées dans l’œil peuvent être fabriquées à base de plexiglas, silicone, hydrogel ou acrylique. Nécessitant une intervention chirurgicale[1] et ne relevant pas de la contactologie.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les lentilles intra-oculaires artificielles sont implantées dans l’œil peuvent être fabriquées à base de plexiglas, silicone, hydrogel ou acrylique. Nécessitant une intervention chirurgicale et ne relevant pas de la contactologie.
 </t>
         </is>
       </c>
